--- a/IM/202601_Service_Count_Report.xlsx
+++ b/IM/202601_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$512</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$513</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1338">
   <si>
     <t>服務次數統計表        篩選月份：202601</t>
   </si>
@@ -2415,6 +2415,16 @@
     <t>PMQ1 7210002698 L90</t>
   </si>
   <si>
+    <t>更換掃描槍
+換下8119006293
+換上8119006499</t>
+  </si>
+  <si>
+    <t>更換掃描槍
+換下8119006292
+換上8119006995</t>
+  </si>
+  <si>
     <t>更換錢櫃
 換下81Z1001539
 換上81Z1003420</t>
@@ -2423,16 +2433,6 @@
     <t>更換錢櫃
 換下81Z1001540
 換上81Z1003699</t>
-  </si>
-  <si>
-    <t>更換掃描槍
-換下8119006293
-換上8119006499</t>
-  </si>
-  <si>
-    <t>更換掃描槍
-換下8119006292
-換上8119006995</t>
   </si>
   <si>
     <t>THILF02428</t>
@@ -3777,6 +3777,12 @@
   </si>
   <si>
     <t>PMQ1 7210003056 L90</t>
+  </si>
+  <si>
+    <t>2026-01-27</t>
+  </si>
+  <si>
+    <t>重裝彈簧</t>
   </si>
   <si>
     <t>THILF03921</t>
@@ -4523,10 +4529,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB512"/>
+  <dimension ref="A1:AB513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A512" sqref="A512"/>
+      <selection activeCell="A513" sqref="A513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9338,7 +9344,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>2026011185</v>
+        <v>2026011184</v>
       </c>
       <c r="C71" s="7">
         <v>1</v>
@@ -9375,7 +9381,7 @@
       </c>
       <c r="N71" s="8"/>
       <c r="O71" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="7">
@@ -9384,7 +9390,9 @@
       <c r="R71" s="7">
         <v>73722</v>
       </c>
-      <c r="S71" s="7"/>
+      <c r="S71" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
@@ -9406,7 +9414,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>2026011184</v>
+        <v>2026011185</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -9443,7 +9451,7 @@
       </c>
       <c r="N72" s="6"/>
       <c r="O72" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P72" s="3"/>
       <c r="Q72" s="3">
@@ -9452,9 +9460,7 @@
       <c r="R72" s="3">
         <v>73722</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S72" s="3"/>
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
@@ -11252,7 +11258,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="7">
-        <v>2026010969</v>
+        <v>2026010968</v>
       </c>
       <c r="C99" s="7">
         <v>1</v>
@@ -11291,14 +11297,16 @@
         <v>353</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7">
         <v>8620</v>
       </c>
-      <c r="S99" s="7"/>
+      <c r="S99" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T99" s="7"/>
       <c r="U99" s="7"/>
       <c r="V99" s="7"/>
@@ -11320,7 +11328,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3">
-        <v>2026010968</v>
+        <v>2026010969</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
@@ -11359,16 +11367,14 @@
         <v>353</v>
       </c>
       <c r="O100" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
       <c r="R100" s="3">
         <v>8620</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S100" s="3"/>
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
@@ -11794,7 +11800,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="7">
-        <v>2026010640</v>
+        <v>2026010639</v>
       </c>
       <c r="C107" s="7">
         <v>1</v>
@@ -11833,14 +11839,16 @@
         <v>370</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7">
         <v>316103</v>
       </c>
-      <c r="S107" s="7"/>
+      <c r="S107" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T107" s="7"/>
       <c r="U107" s="7"/>
       <c r="V107" s="7"/>
@@ -11860,7 +11868,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3">
-        <v>2026010639</v>
+        <v>2026010640</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
@@ -11899,16 +11907,14 @@
         <v>370</v>
       </c>
       <c r="O108" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
       <c r="R108" s="3">
         <v>316103</v>
       </c>
-      <c r="S108" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S108" s="3"/>
       <c r="T108" s="3"/>
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
@@ -18440,7 +18446,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="3">
-        <v>2026012882</v>
+        <v>2026012881</v>
       </c>
       <c r="C206" s="3">
         <v>1</v>
@@ -18479,7 +18485,7 @@
         <v>681</v>
       </c>
       <c r="O206" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="P206" s="3">
         <v>722</v>
@@ -18490,7 +18496,9 @@
       <c r="R206" s="3">
         <v>102504</v>
       </c>
-      <c r="S206" s="3"/>
+      <c r="S206" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T206" s="3"/>
       <c r="U206" s="3"/>
       <c r="V206" s="3"/>
@@ -18508,7 +18516,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="7">
-        <v>2026012881</v>
+        <v>2026012882</v>
       </c>
       <c r="C207" s="7">
         <v>1</v>
@@ -18547,7 +18555,7 @@
         <v>681</v>
       </c>
       <c r="O207" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P207" s="7">
         <v>722</v>
@@ -18558,9 +18566,7 @@
       <c r="R207" s="7">
         <v>102504</v>
       </c>
-      <c r="S207" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S207" s="7"/>
       <c r="T207" s="7"/>
       <c r="U207" s="7"/>
       <c r="V207" s="7"/>
@@ -19738,7 +19744,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="7">
-        <v>2026011106</v>
+        <v>2026011105</v>
       </c>
       <c r="C225" s="7">
         <v>1</v>
@@ -19777,14 +19783,16 @@
         <v>720</v>
       </c>
       <c r="O225" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="P225" s="7"/>
       <c r="Q225" s="7"/>
       <c r="R225" s="7">
         <v>289293</v>
       </c>
-      <c r="S225" s="7"/>
+      <c r="S225" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T225" s="7"/>
       <c r="U225" s="7"/>
       <c r="V225" s="7"/>
@@ -19802,7 +19810,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="3">
-        <v>2026011105</v>
+        <v>2026011106</v>
       </c>
       <c r="C226" s="3">
         <v>1</v>
@@ -19841,16 +19849,14 @@
         <v>720</v>
       </c>
       <c r="O226" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P226" s="3"/>
       <c r="Q226" s="3"/>
       <c r="R226" s="3">
         <v>289293</v>
       </c>
-      <c r="S226" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S226" s="3"/>
       <c r="T226" s="3"/>
       <c r="U226" s="3"/>
       <c r="V226" s="3"/>
@@ -20464,7 +20470,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="3">
-        <v>2026011104</v>
+        <v>2026011103</v>
       </c>
       <c r="C236" s="3">
         <v>1</v>
@@ -20503,14 +20509,16 @@
         <v>720</v>
       </c>
       <c r="O236" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="P236" s="3"/>
       <c r="Q236" s="3"/>
       <c r="R236" s="3">
         <v>66089</v>
       </c>
-      <c r="S236" s="3"/>
+      <c r="S236" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T236" s="3"/>
       <c r="U236" s="3"/>
       <c r="V236" s="3"/>
@@ -20528,7 +20536,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="7">
-        <v>2026011103</v>
+        <v>2026011104</v>
       </c>
       <c r="C237" s="7">
         <v>1</v>
@@ -20567,16 +20575,14 @@
         <v>720</v>
       </c>
       <c r="O237" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P237" s="7"/>
       <c r="Q237" s="7"/>
       <c r="R237" s="7">
         <v>66089</v>
       </c>
-      <c r="S237" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S237" s="7"/>
       <c r="T237" s="7"/>
       <c r="U237" s="7"/>
       <c r="V237" s="7"/>
@@ -21868,7 +21874,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="7">
-        <v>2026011523</v>
+        <v>2026011521</v>
       </c>
       <c r="C257" s="7">
         <v>1</v>
@@ -21936,7 +21942,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="3">
-        <v>2026011524</v>
+        <v>2026011522</v>
       </c>
       <c r="C258" s="3">
         <v>1</v>
@@ -22002,7 +22008,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="7">
-        <v>2026011521</v>
+        <v>2026011523</v>
       </c>
       <c r="C259" s="7">
         <v>1</v>
@@ -22068,7 +22074,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="3">
-        <v>2026011522</v>
+        <v>2026011524</v>
       </c>
       <c r="C260" s="3">
         <v>1</v>
@@ -26108,7 +26114,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="7">
-        <v>2026011561</v>
+        <v>2026011560</v>
       </c>
       <c r="C321" s="7">
         <v>1</v>
@@ -26145,7 +26151,7 @@
       </c>
       <c r="N321" s="8"/>
       <c r="O321" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="P321" s="7"/>
       <c r="Q321" s="7">
@@ -26154,7 +26160,9 @@
       <c r="R321" s="7">
         <v>46000</v>
       </c>
-      <c r="S321" s="7"/>
+      <c r="S321" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T321" s="7"/>
       <c r="U321" s="7"/>
       <c r="V321" s="7"/>
@@ -26176,7 +26184,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="3">
-        <v>2026011560</v>
+        <v>2026011561</v>
       </c>
       <c r="C322" s="3">
         <v>1</v>
@@ -26213,7 +26221,7 @@
       </c>
       <c r="N322" s="6"/>
       <c r="O322" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P322" s="3"/>
       <c r="Q322" s="3">
@@ -26222,9 +26230,7 @@
       <c r="R322" s="3">
         <v>46000</v>
       </c>
-      <c r="S322" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S322" s="3"/>
       <c r="T322" s="3"/>
       <c r="U322" s="3"/>
       <c r="V322" s="3"/>
@@ -27006,7 +27012,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="3">
-        <v>2026010857</v>
+        <v>2026010856</v>
       </c>
       <c r="C334" s="3">
         <v>1</v>
@@ -27045,7 +27051,7 @@
         <v>1034</v>
       </c>
       <c r="O334" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="P334" s="3"/>
       <c r="Q334" s="3">
@@ -27054,7 +27060,9 @@
       <c r="R334" s="3">
         <v>18000</v>
       </c>
-      <c r="S334" s="3"/>
+      <c r="S334" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T334" s="3"/>
       <c r="U334" s="3"/>
       <c r="V334" s="3"/>
@@ -27076,7 +27084,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="7">
-        <v>2026010856</v>
+        <v>2026010857</v>
       </c>
       <c r="C335" s="7">
         <v>1</v>
@@ -27115,7 +27123,7 @@
         <v>1034</v>
       </c>
       <c r="O335" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P335" s="7"/>
       <c r="Q335" s="7">
@@ -27124,9 +27132,7 @@
       <c r="R335" s="7">
         <v>18000</v>
       </c>
-      <c r="S335" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S335" s="7"/>
       <c r="T335" s="7"/>
       <c r="U335" s="7"/>
       <c r="V335" s="7"/>
@@ -29532,7 +29538,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="7">
-        <v>2026012980</v>
+        <v>2026012979</v>
       </c>
       <c r="C371" s="7">
         <v>1</v>
@@ -29571,14 +29577,16 @@
         <v>1090</v>
       </c>
       <c r="O371" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="P371" s="7"/>
       <c r="Q371" s="7"/>
       <c r="R371" s="7">
         <v>13476</v>
       </c>
-      <c r="S371" s="7"/>
+      <c r="S371" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T371" s="7"/>
       <c r="U371" s="7"/>
       <c r="V371" s="7"/>
@@ -29588,19 +29596,15 @@
       <c r="Z371" s="8" t="s">
         <v>1012</v>
       </c>
-      <c r="AA371" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB371" s="7">
-        <v>1</v>
-      </c>
+      <c r="AA371" s="7"/>
+      <c r="AB371" s="7"/>
     </row>
     <row r="372" spans="1:28">
       <c r="A372" s="3">
         <v>370</v>
       </c>
       <c r="B372" s="3">
-        <v>2026012979</v>
+        <v>2026012980</v>
       </c>
       <c r="C372" s="3">
         <v>1</v>
@@ -29639,16 +29643,14 @@
         <v>1090</v>
       </c>
       <c r="O372" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P372" s="3"/>
       <c r="Q372" s="3"/>
       <c r="R372" s="3">
         <v>13476</v>
       </c>
-      <c r="S372" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S372" s="3"/>
       <c r="T372" s="3"/>
       <c r="U372" s="3"/>
       <c r="V372" s="3"/>
@@ -29658,7 +29660,9 @@
       <c r="Z372" s="6" t="s">
         <v>1012</v>
       </c>
-      <c r="AA372" s="3"/>
+      <c r="AA372" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB372" s="3"/>
     </row>
     <row r="373" spans="1:28">
@@ -29802,7 +29806,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="7">
-        <v>2026011502</v>
+        <v>2026011503</v>
       </c>
       <c r="C375" s="7">
         <v>1</v>
@@ -29841,16 +29845,14 @@
         <v>1095</v>
       </c>
       <c r="O375" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P375" s="7"/>
       <c r="Q375" s="7"/>
       <c r="R375" s="7">
         <v>17276</v>
       </c>
-      <c r="S375" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S375" s="7"/>
       <c r="T375" s="7"/>
       <c r="U375" s="7"/>
       <c r="V375" s="7"/>
@@ -29872,7 +29874,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="3">
-        <v>2026011503</v>
+        <v>2026011502</v>
       </c>
       <c r="C376" s="3">
         <v>1</v>
@@ -29911,14 +29913,16 @@
         <v>1095</v>
       </c>
       <c r="O376" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="P376" s="3"/>
       <c r="Q376" s="3"/>
       <c r="R376" s="3">
         <v>17276</v>
       </c>
-      <c r="S376" s="3"/>
+      <c r="S376" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T376" s="3"/>
       <c r="U376" s="3"/>
       <c r="V376" s="3"/>
@@ -31632,7 +31636,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="3">
-        <v>2026011500</v>
+        <v>2026011501</v>
       </c>
       <c r="C402" s="3">
         <v>1</v>
@@ -31671,16 +31675,14 @@
         <v>1140</v>
       </c>
       <c r="O402" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P402" s="3"/>
       <c r="Q402" s="3"/>
       <c r="R402" s="3">
         <v>3708</v>
       </c>
-      <c r="S402" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S402" s="3"/>
       <c r="T402" s="3"/>
       <c r="U402" s="3"/>
       <c r="V402" s="3"/>
@@ -31702,7 +31704,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="7">
-        <v>2026011501</v>
+        <v>2026011500</v>
       </c>
       <c r="C403" s="7">
         <v>1</v>
@@ -31741,14 +31743,16 @@
         <v>1140</v>
       </c>
       <c r="O403" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="P403" s="7"/>
       <c r="Q403" s="7"/>
       <c r="R403" s="7">
         <v>3708</v>
       </c>
-      <c r="S403" s="7"/>
+      <c r="S403" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T403" s="7"/>
       <c r="U403" s="7"/>
       <c r="V403" s="7"/>
@@ -32170,7 +32174,7 @@
         <v>408</v>
       </c>
       <c r="B410" s="3">
-        <v>2026010959</v>
+        <v>2026010958</v>
       </c>
       <c r="C410" s="3">
         <v>1</v>
@@ -32209,7 +32213,7 @@
         <v>1034</v>
       </c>
       <c r="O410" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="P410" s="3"/>
       <c r="Q410" s="3">
@@ -32218,7 +32222,9 @@
       <c r="R410" s="3">
         <v>29606</v>
       </c>
-      <c r="S410" s="3"/>
+      <c r="S410" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T410" s="3"/>
       <c r="U410" s="3"/>
       <c r="V410" s="3"/>
@@ -32228,19 +32234,15 @@
       <c r="Z410" s="6" t="s">
         <v>1012</v>
       </c>
-      <c r="AA410" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB410" s="3">
-        <v>1</v>
-      </c>
+      <c r="AA410" s="3"/>
+      <c r="AB410" s="3"/>
     </row>
     <row r="411" spans="1:28">
       <c r="A411" s="7">
         <v>409</v>
       </c>
       <c r="B411" s="7">
-        <v>2026010958</v>
+        <v>2026010959</v>
       </c>
       <c r="C411" s="7">
         <v>1</v>
@@ -32279,7 +32281,7 @@
         <v>1034</v>
       </c>
       <c r="O411" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P411" s="7"/>
       <c r="Q411" s="7">
@@ -32288,9 +32290,7 @@
       <c r="R411" s="7">
         <v>29606</v>
       </c>
-      <c r="S411" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S411" s="7"/>
       <c r="T411" s="7"/>
       <c r="U411" s="7"/>
       <c r="V411" s="7"/>
@@ -32300,7 +32300,9 @@
       <c r="Z411" s="8" t="s">
         <v>1012</v>
       </c>
-      <c r="AA411" s="7"/>
+      <c r="AA411" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB411" s="7"/>
     </row>
     <row r="412" spans="1:28">
@@ -35948,7 +35950,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="3">
-        <v>2026010053</v>
+        <v>2026013439</v>
       </c>
       <c r="C466" s="3">
         <v>1</v>
@@ -35960,49 +35962,49 @@
         <v>1006</v>
       </c>
       <c r="F466" s="3" t="s">
-        <v>146</v>
+        <v>1233</v>
       </c>
       <c r="G466" s="3" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="H466" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I466" s="3" t="s">
-        <v>1233</v>
-      </c>
-      <c r="J466" s="3"/>
-      <c r="K466" s="3"/>
+        <v>1228</v>
+      </c>
+      <c r="J466" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="K466" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="L466" s="6" t="s">
         <v>398</v>
       </c>
       <c r="M466" s="6" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="N466" s="6" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="O466" s="3" t="s">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="P466" s="3"/>
       <c r="Q466" s="3"/>
       <c r="R466" s="3">
         <v>0</v>
       </c>
-      <c r="S466" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S466" s="3"/>
       <c r="T466" s="3"/>
       <c r="U466" s="3"/>
       <c r="V466" s="3"/>
       <c r="W466" s="3"/>
       <c r="X466" s="3"/>
-      <c r="Y466" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y466" s="3"/>
       <c r="Z466" s="6" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="AA466" s="3" t="s">
         <v>41</v>
@@ -36016,7 +36018,7 @@
         <v>465</v>
       </c>
       <c r="B467" s="7">
-        <v>2026013340</v>
+        <v>2026010053</v>
       </c>
       <c r="C467" s="7">
         <v>1</v>
@@ -36028,49 +36030,49 @@
         <v>1006</v>
       </c>
       <c r="F467" s="7" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="G467" s="7" t="s">
-        <v>229</v>
+        <v>141</v>
       </c>
       <c r="H467" s="7" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="I467" s="7" t="s">
-        <v>1237</v>
-      </c>
-      <c r="J467" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="K467" s="7" t="s">
-        <v>397</v>
-      </c>
+        <v>1235</v>
+      </c>
+      <c r="J467" s="7"/>
+      <c r="K467" s="7"/>
       <c r="L467" s="8" t="s">
         <v>398</v>
       </c>
       <c r="M467" s="8" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="N467" s="8" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="O467" s="7" t="s">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="P467" s="7"/>
       <c r="Q467" s="7"/>
       <c r="R467" s="7">
         <v>0</v>
       </c>
-      <c r="S467" s="7"/>
+      <c r="S467" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T467" s="7"/>
       <c r="U467" s="7"/>
       <c r="V467" s="7"/>
       <c r="W467" s="7"/>
       <c r="X467" s="7"/>
-      <c r="Y467" s="7"/>
+      <c r="Y467" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z467" s="8" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="AA467" s="7" t="s">
         <v>41</v>
@@ -36084,7 +36086,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="3">
-        <v>2026013390</v>
+        <v>2026013340</v>
       </c>
       <c r="C468" s="3">
         <v>1</v>
@@ -36099,58 +36101,60 @@
         <v>49</v>
       </c>
       <c r="G468" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H468" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H468" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="I468" s="3" t="s">
-        <v>1237</v>
-      </c>
-      <c r="J468" s="3"/>
-      <c r="K468" s="3"/>
+        <v>1239</v>
+      </c>
+      <c r="J468" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="K468" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="L468" s="6" t="s">
         <v>398</v>
       </c>
       <c r="M468" s="6" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="N468" s="6" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="O468" s="3" t="s">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="P468" s="3"/>
       <c r="Q468" s="3"/>
       <c r="R468" s="3">
         <v>0</v>
       </c>
-      <c r="S468" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S468" s="3"/>
       <c r="T468" s="3"/>
       <c r="U468" s="3"/>
       <c r="V468" s="3"/>
       <c r="W468" s="3"/>
       <c r="X468" s="3"/>
-      <c r="Y468" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y468" s="3"/>
       <c r="Z468" s="6" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="AA468" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB468" s="3"/>
+      <c r="AB468" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="469" spans="1:28">
       <c r="A469" s="7">
         <v>467</v>
       </c>
       <c r="B469" s="7">
-        <v>2026012296</v>
+        <v>2026013390</v>
       </c>
       <c r="C469" s="7">
         <v>1</v>
@@ -36162,63 +36166,61 @@
         <v>1006</v>
       </c>
       <c r="F469" s="7" t="s">
-        <v>432</v>
+        <v>49</v>
       </c>
       <c r="G469" s="7" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="H469" s="7" t="s">
-        <v>344</v>
+        <v>92</v>
       </c>
       <c r="I469" s="7" t="s">
-        <v>844</v>
-      </c>
-      <c r="J469" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="K469" s="7" t="s">
-        <v>397</v>
-      </c>
+        <v>1239</v>
+      </c>
+      <c r="J469" s="7"/>
+      <c r="K469" s="7"/>
       <c r="L469" s="8" t="s">
         <v>398</v>
       </c>
       <c r="M469" s="8" t="s">
-        <v>845</v>
+        <v>1240</v>
       </c>
       <c r="N469" s="8" t="s">
-        <v>846</v>
+        <v>1241</v>
       </c>
       <c r="O469" s="7" t="s">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="P469" s="7"/>
       <c r="Q469" s="7"/>
       <c r="R469" s="7">
         <v>0</v>
       </c>
-      <c r="S469" s="7"/>
+      <c r="S469" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T469" s="7"/>
       <c r="U469" s="7"/>
       <c r="V469" s="7"/>
       <c r="W469" s="7"/>
       <c r="X469" s="7"/>
-      <c r="Y469" s="7"/>
+      <c r="Y469" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z469" s="8" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="AA469" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB469" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB469" s="7"/>
     </row>
     <row r="470" spans="1:28">
       <c r="A470" s="3">
         <v>468</v>
       </c>
       <c r="B470" s="3">
-        <v>2026011769</v>
+        <v>2026012296</v>
       </c>
       <c r="C470" s="3">
         <v>1</v>
@@ -36230,19 +36232,19 @@
         <v>1006</v>
       </c>
       <c r="F470" s="3" t="s">
-        <v>212</v>
+        <v>432</v>
       </c>
       <c r="G470" s="3" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="H470" s="3" t="s">
-        <v>282</v>
+        <v>344</v>
       </c>
       <c r="I470" s="3" t="s">
-        <v>519</v>
+        <v>844</v>
       </c>
       <c r="J470" s="3" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="K470" s="3" t="s">
         <v>397</v>
@@ -36251,10 +36253,10 @@
         <v>398</v>
       </c>
       <c r="M470" s="6" t="s">
-        <v>520</v>
+        <v>845</v>
       </c>
       <c r="N470" s="6" t="s">
-        <v>521</v>
+        <v>846</v>
       </c>
       <c r="O470" s="3" t="s">
         <v>260</v>
@@ -36272,7 +36274,7 @@
       <c r="X470" s="3"/>
       <c r="Y470" s="3"/>
       <c r="Z470" s="6" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="AA470" s="3" t="s">
         <v>41</v>
@@ -36286,7 +36288,7 @@
         <v>469</v>
       </c>
       <c r="B471" s="7">
-        <v>2026011437</v>
+        <v>2026011769</v>
       </c>
       <c r="C471" s="7">
         <v>1</v>
@@ -36298,30 +36300,34 @@
         <v>1006</v>
       </c>
       <c r="F471" s="7" t="s">
-        <v>526</v>
+        <v>212</v>
       </c>
       <c r="G471" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H471" s="7" t="s">
-        <v>86</v>
+        <v>282</v>
       </c>
       <c r="I471" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="J471" s="7"/>
-      <c r="K471" s="7"/>
+        <v>519</v>
+      </c>
+      <c r="J471" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K471" s="7" t="s">
+        <v>397</v>
+      </c>
       <c r="L471" s="8" t="s">
         <v>398</v>
       </c>
       <c r="M471" s="8" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="N471" s="8" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="O471" s="7" t="s">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="P471" s="7"/>
       <c r="Q471" s="7"/>
@@ -36334,11 +36340,9 @@
       <c r="V471" s="7"/>
       <c r="W471" s="7"/>
       <c r="X471" s="7"/>
-      <c r="Y471" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y471" s="7"/>
       <c r="Z471" s="8" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="AA471" s="7" t="s">
         <v>41</v>
@@ -36352,7 +36356,7 @@
         <v>470</v>
       </c>
       <c r="B472" s="3">
-        <v>2026013402</v>
+        <v>2026011437</v>
       </c>
       <c r="C472" s="3">
         <v>1</v>
@@ -36364,34 +36368,30 @@
         <v>1006</v>
       </c>
       <c r="F472" s="3" t="s">
-        <v>461</v>
+        <v>526</v>
       </c>
       <c r="G472" s="3" t="s">
-        <v>733</v>
+        <v>59</v>
       </c>
       <c r="H472" s="3" t="s">
-        <v>292</v>
+        <v>86</v>
       </c>
       <c r="I472" s="3" t="s">
-        <v>1245</v>
-      </c>
-      <c r="J472" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K472" s="3" t="s">
-        <v>397</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="J472" s="3"/>
+      <c r="K472" s="3"/>
       <c r="L472" s="6" t="s">
         <v>398</v>
       </c>
       <c r="M472" s="6" t="s">
-        <v>1246</v>
+        <v>538</v>
       </c>
       <c r="N472" s="6" t="s">
-        <v>1247</v>
+        <v>539</v>
       </c>
       <c r="O472" s="3" t="s">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="P472" s="3"/>
       <c r="Q472" s="3"/>
@@ -36404,9 +36404,11 @@
       <c r="V472" s="3"/>
       <c r="W472" s="3"/>
       <c r="X472" s="3"/>
-      <c r="Y472" s="3"/>
+      <c r="Y472" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z472" s="6" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="AA472" s="3" t="s">
         <v>41</v>
@@ -36420,7 +36422,7 @@
         <v>471</v>
       </c>
       <c r="B473" s="7">
-        <v>2026013254</v>
+        <v>2026013402</v>
       </c>
       <c r="C473" s="7">
         <v>1</v>
@@ -36432,30 +36434,34 @@
         <v>1006</v>
       </c>
       <c r="F473" s="7" t="s">
-        <v>49</v>
+        <v>461</v>
       </c>
       <c r="G473" s="7" t="s">
-        <v>59</v>
+        <v>733</v>
       </c>
       <c r="H473" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="I473" s="7" t="s">
-        <v>1249</v>
-      </c>
-      <c r="J473" s="7"/>
-      <c r="K473" s="7"/>
+        <v>1247</v>
+      </c>
+      <c r="J473" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K473" s="7" t="s">
+        <v>397</v>
+      </c>
       <c r="L473" s="8" t="s">
         <v>398</v>
       </c>
       <c r="M473" s="8" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="N473" s="8" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="O473" s="7" t="s">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="P473" s="7"/>
       <c r="Q473" s="7"/>
@@ -36463,16 +36469,14 @@
         <v>0</v>
       </c>
       <c r="S473" s="7"/>
-      <c r="T473" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="T473" s="7"/>
       <c r="U473" s="7"/>
       <c r="V473" s="7"/>
       <c r="W473" s="7"/>
       <c r="X473" s="7"/>
       <c r="Y473" s="7"/>
       <c r="Z473" s="8" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="AA473" s="7" t="s">
         <v>41</v>
@@ -36486,7 +36490,7 @@
         <v>472</v>
       </c>
       <c r="B474" s="3">
-        <v>2026010067</v>
+        <v>2026013254</v>
       </c>
       <c r="C474" s="3">
         <v>1</v>
@@ -36498,7 +36502,7 @@
         <v>1006</v>
       </c>
       <c r="F474" s="3" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="G474" s="3" t="s">
         <v>59</v>
@@ -36507,7 +36511,7 @@
         <v>282</v>
       </c>
       <c r="I474" s="3" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="J474" s="3"/>
       <c r="K474" s="3"/>
@@ -36515,10 +36519,10 @@
         <v>398</v>
       </c>
       <c r="M474" s="6" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="N474" s="6" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="O474" s="3" t="s">
         <v>48</v>
@@ -36528,19 +36532,17 @@
       <c r="R474" s="3">
         <v>0</v>
       </c>
-      <c r="S474" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T474" s="3"/>
+      <c r="S474" s="3"/>
+      <c r="T474" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="U474" s="3"/>
       <c r="V474" s="3"/>
       <c r="W474" s="3"/>
       <c r="X474" s="3"/>
-      <c r="Y474" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y474" s="3"/>
       <c r="Z474" s="6" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="AA474" s="3" t="s">
         <v>41</v>
@@ -36554,7 +36556,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="7">
-        <v>2026012028</v>
+        <v>2026010067</v>
       </c>
       <c r="C475" s="7">
         <v>1</v>
@@ -36566,49 +36568,49 @@
         <v>1006</v>
       </c>
       <c r="F475" s="7" t="s">
-        <v>378</v>
+        <v>146</v>
       </c>
       <c r="G475" s="7" t="s">
-        <v>229</v>
+        <v>59</v>
       </c>
       <c r="H475" s="7" t="s">
-        <v>91</v>
+        <v>282</v>
       </c>
       <c r="I475" s="7" t="s">
-        <v>1253</v>
-      </c>
-      <c r="J475" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="K475" s="7" t="s">
-        <v>397</v>
-      </c>
+        <v>1255</v>
+      </c>
+      <c r="J475" s="7"/>
+      <c r="K475" s="7"/>
       <c r="L475" s="8" t="s">
         <v>398</v>
       </c>
       <c r="M475" s="8" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="N475" s="8" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="O475" s="7" t="s">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="P475" s="7"/>
       <c r="Q475" s="7"/>
       <c r="R475" s="7">
         <v>0</v>
       </c>
-      <c r="S475" s="7"/>
+      <c r="S475" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T475" s="7"/>
       <c r="U475" s="7"/>
       <c r="V475" s="7"/>
       <c r="W475" s="7"/>
       <c r="X475" s="7"/>
-      <c r="Y475" s="7"/>
+      <c r="Y475" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z475" s="8" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="AA475" s="7" t="s">
         <v>41</v>
@@ -36622,7 +36624,7 @@
         <v>474</v>
       </c>
       <c r="B476" s="3">
-        <v>2026011844</v>
+        <v>2026012028</v>
       </c>
       <c r="C476" s="3">
         <v>1</v>
@@ -36634,16 +36636,16 @@
         <v>1006</v>
       </c>
       <c r="F476" s="3" t="s">
-        <v>212</v>
+        <v>378</v>
       </c>
       <c r="G476" s="3" t="s">
-        <v>86</v>
+        <v>229</v>
       </c>
       <c r="H476" s="3" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="I476" s="3" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="J476" s="3" t="s">
         <v>406</v>
@@ -36655,10 +36657,10 @@
         <v>398</v>
       </c>
       <c r="M476" s="6" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="N476" s="6" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="O476" s="3" t="s">
         <v>260</v>
@@ -36676,7 +36678,7 @@
       <c r="X476" s="3"/>
       <c r="Y476" s="3"/>
       <c r="Z476" s="6" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="AA476" s="3" t="s">
         <v>41</v>
@@ -36690,7 +36692,7 @@
         <v>475</v>
       </c>
       <c r="B477" s="7">
-        <v>2026011870</v>
+        <v>2026011844</v>
       </c>
       <c r="C477" s="7">
         <v>1</v>
@@ -36705,46 +36707,46 @@
         <v>212</v>
       </c>
       <c r="G477" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H477" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H477" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="I477" s="7" t="s">
-        <v>1258</v>
-      </c>
-      <c r="J477" s="7"/>
-      <c r="K477" s="7"/>
+        <v>1260</v>
+      </c>
+      <c r="J477" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K477" s="7" t="s">
+        <v>397</v>
+      </c>
       <c r="L477" s="8" t="s">
         <v>398</v>
       </c>
       <c r="M477" s="8" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="N477" s="8" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="O477" s="7" t="s">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="P477" s="7"/>
       <c r="Q477" s="7"/>
       <c r="R477" s="7">
         <v>0</v>
       </c>
-      <c r="S477" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S477" s="7"/>
       <c r="T477" s="7"/>
       <c r="U477" s="7"/>
       <c r="V477" s="7"/>
       <c r="W477" s="7"/>
       <c r="X477" s="7"/>
-      <c r="Y477" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y477" s="7"/>
       <c r="Z477" s="8" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="AA477" s="7" t="s">
         <v>41</v>
@@ -36758,7 +36760,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="3">
-        <v>2026010203</v>
+        <v>2026011870</v>
       </c>
       <c r="C478" s="3">
         <v>1</v>
@@ -36770,49 +36772,49 @@
         <v>1006</v>
       </c>
       <c r="F478" s="3" t="s">
-        <v>363</v>
+        <v>212</v>
       </c>
       <c r="G478" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H478" s="3" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="I478" s="3" t="s">
-        <v>1263</v>
-      </c>
-      <c r="J478" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="K478" s="3" t="s">
-        <v>397</v>
-      </c>
+        <v>1260</v>
+      </c>
+      <c r="J478" s="3"/>
+      <c r="K478" s="3"/>
       <c r="L478" s="6" t="s">
         <v>398</v>
       </c>
       <c r="M478" s="6" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="N478" s="6" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="O478" s="3" t="s">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="P478" s="3"/>
       <c r="Q478" s="3"/>
       <c r="R478" s="3">
         <v>0</v>
       </c>
-      <c r="S478" s="3"/>
+      <c r="S478" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T478" s="3"/>
       <c r="U478" s="3"/>
       <c r="V478" s="3"/>
       <c r="W478" s="3"/>
       <c r="X478" s="3"/>
-      <c r="Y478" s="3"/>
+      <c r="Y478" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z478" s="6" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="AA478" s="3" t="s">
         <v>41</v>
@@ -36826,7 +36828,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="7">
-        <v>2026010202</v>
+        <v>2026010203</v>
       </c>
       <c r="C479" s="7">
         <v>1</v>
@@ -36841,13 +36843,13 @@
         <v>363</v>
       </c>
       <c r="G479" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H479" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H479" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="I479" s="7" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="J479" s="7" t="s">
         <v>406</v>
@@ -36859,10 +36861,10 @@
         <v>398</v>
       </c>
       <c r="M479" s="8" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="N479" s="8" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="O479" s="7" t="s">
         <v>260</v>
@@ -36880,19 +36882,21 @@
       <c r="X479" s="7"/>
       <c r="Y479" s="7"/>
       <c r="Z479" s="8" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="AA479" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB479" s="7"/>
+      <c r="AB479" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="480" spans="1:28">
       <c r="A480" s="3">
         <v>478</v>
       </c>
       <c r="B480" s="3">
-        <v>2026010542</v>
+        <v>2026010202</v>
       </c>
       <c r="C480" s="3">
         <v>1</v>
@@ -36907,46 +36911,46 @@
         <v>363</v>
       </c>
       <c r="G480" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H480" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H480" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="I480" s="3" t="s">
-        <v>1263</v>
-      </c>
-      <c r="J480" s="3"/>
-      <c r="K480" s="3"/>
+        <v>1265</v>
+      </c>
+      <c r="J480" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="K480" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="L480" s="6" t="s">
         <v>398</v>
       </c>
       <c r="M480" s="6" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="N480" s="6" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="O480" s="3" t="s">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="P480" s="3"/>
       <c r="Q480" s="3"/>
       <c r="R480" s="3">
         <v>0</v>
       </c>
-      <c r="S480" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S480" s="3"/>
       <c r="T480" s="3"/>
       <c r="U480" s="3"/>
       <c r="V480" s="3"/>
       <c r="W480" s="3"/>
       <c r="X480" s="3"/>
-      <c r="Y480" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y480" s="3"/>
       <c r="Z480" s="6" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AA480" s="3" t="s">
         <v>41</v>
@@ -36958,7 +36962,7 @@
         <v>479</v>
       </c>
       <c r="B481" s="7">
-        <v>2026013345</v>
+        <v>2026010542</v>
       </c>
       <c r="C481" s="7">
         <v>1</v>
@@ -36970,63 +36974,61 @@
         <v>1006</v>
       </c>
       <c r="F481" s="7" t="s">
-        <v>49</v>
+        <v>363</v>
       </c>
       <c r="G481" s="7" t="s">
-        <v>416</v>
+        <v>141</v>
       </c>
       <c r="H481" s="7" t="s">
-        <v>589</v>
+        <v>235</v>
       </c>
       <c r="I481" s="7" t="s">
-        <v>1269</v>
-      </c>
-      <c r="J481" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="K481" s="7" t="s">
-        <v>397</v>
-      </c>
+        <v>1265</v>
+      </c>
+      <c r="J481" s="7"/>
+      <c r="K481" s="7"/>
       <c r="L481" s="8" t="s">
         <v>398</v>
       </c>
       <c r="M481" s="8" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="N481" s="8" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="O481" s="7" t="s">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="P481" s="7"/>
       <c r="Q481" s="7"/>
       <c r="R481" s="7">
         <v>0</v>
       </c>
-      <c r="S481" s="7"/>
+      <c r="S481" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T481" s="7"/>
       <c r="U481" s="7"/>
       <c r="V481" s="7"/>
       <c r="W481" s="7"/>
       <c r="X481" s="7"/>
-      <c r="Y481" s="7"/>
+      <c r="Y481" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z481" s="8" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="AA481" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB481" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB481" s="7"/>
     </row>
     <row r="482" spans="1:28">
       <c r="A482" s="3">
         <v>480</v>
       </c>
       <c r="B482" s="3">
-        <v>2026013392</v>
+        <v>2026013345</v>
       </c>
       <c r="C482" s="3">
         <v>1</v>
@@ -37041,58 +37043,60 @@
         <v>49</v>
       </c>
       <c r="G482" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="H482" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="H482" s="3" t="s">
-        <v>1273</v>
-      </c>
       <c r="I482" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="J482" s="3"/>
-      <c r="K482" s="3"/>
+        <v>1271</v>
+      </c>
+      <c r="J482" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="K482" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="L482" s="6" t="s">
         <v>398</v>
       </c>
       <c r="M482" s="6" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="N482" s="6" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="O482" s="3" t="s">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="P482" s="3"/>
       <c r="Q482" s="3"/>
       <c r="R482" s="3">
         <v>0</v>
       </c>
-      <c r="S482" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S482" s="3"/>
       <c r="T482" s="3"/>
       <c r="U482" s="3"/>
       <c r="V482" s="3"/>
       <c r="W482" s="3"/>
       <c r="X482" s="3"/>
-      <c r="Y482" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y482" s="3"/>
       <c r="Z482" s="6" t="s">
         <v>1274</v>
       </c>
       <c r="AA482" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB482" s="3"/>
+      <c r="AB482" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="483" spans="1:28">
       <c r="A483" s="7">
         <v>481</v>
       </c>
       <c r="B483" s="7">
-        <v>2026010201</v>
+        <v>2026013392</v>
       </c>
       <c r="C483" s="7">
         <v>1</v>
@@ -37104,63 +37108,61 @@
         <v>1006</v>
       </c>
       <c r="F483" s="7" t="s">
-        <v>363</v>
+        <v>49</v>
       </c>
       <c r="G483" s="7" t="s">
-        <v>59</v>
+        <v>589</v>
       </c>
       <c r="H483" s="7" t="s">
-        <v>282</v>
+        <v>1275</v>
       </c>
       <c r="I483" s="7" t="s">
-        <v>1275</v>
-      </c>
-      <c r="J483" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="K483" s="7" t="s">
-        <v>397</v>
-      </c>
+        <v>1271</v>
+      </c>
+      <c r="J483" s="7"/>
+      <c r="K483" s="7"/>
       <c r="L483" s="8" t="s">
         <v>398</v>
       </c>
       <c r="M483" s="8" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="N483" s="8" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="O483" s="7" t="s">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="P483" s="7"/>
       <c r="Q483" s="7"/>
       <c r="R483" s="7">
         <v>0</v>
       </c>
-      <c r="S483" s="7"/>
+      <c r="S483" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T483" s="7"/>
       <c r="U483" s="7"/>
       <c r="V483" s="7"/>
       <c r="W483" s="7"/>
       <c r="X483" s="7"/>
-      <c r="Y483" s="7"/>
+      <c r="Y483" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z483" s="8" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="AA483" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB483" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB483" s="7"/>
     </row>
     <row r="484" spans="1:28">
       <c r="A484" s="3">
         <v>482</v>
       </c>
       <c r="B484" s="3">
-        <v>2026010566</v>
+        <v>2026010201</v>
       </c>
       <c r="C484" s="3">
         <v>1</v>
@@ -37175,58 +37177,60 @@
         <v>363</v>
       </c>
       <c r="G484" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H484" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="H484" s="3" t="s">
-        <v>1279</v>
-      </c>
       <c r="I484" s="3" t="s">
-        <v>1275</v>
-      </c>
-      <c r="J484" s="3"/>
-      <c r="K484" s="3"/>
+        <v>1277</v>
+      </c>
+      <c r="J484" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="K484" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="L484" s="6" t="s">
         <v>398</v>
       </c>
       <c r="M484" s="6" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="N484" s="6" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="O484" s="3" t="s">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="P484" s="3"/>
       <c r="Q484" s="3"/>
       <c r="R484" s="3">
         <v>0</v>
       </c>
-      <c r="S484" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S484" s="3"/>
       <c r="T484" s="3"/>
       <c r="U484" s="3"/>
       <c r="V484" s="3"/>
       <c r="W484" s="3"/>
       <c r="X484" s="3"/>
-      <c r="Y484" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y484" s="3"/>
       <c r="Z484" s="6" t="s">
         <v>1280</v>
       </c>
       <c r="AA484" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB484" s="3"/>
+      <c r="AB484" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="485" spans="1:28">
       <c r="A485" s="7">
         <v>483</v>
       </c>
       <c r="B485" s="7">
-        <v>2026012703</v>
+        <v>2026010566</v>
       </c>
       <c r="C485" s="7">
         <v>1</v>
@@ -37238,63 +37242,61 @@
         <v>1006</v>
       </c>
       <c r="F485" s="7" t="s">
-        <v>31</v>
+        <v>363</v>
       </c>
       <c r="G485" s="7" t="s">
-        <v>87</v>
+        <v>282</v>
       </c>
       <c r="H485" s="7" t="s">
-        <v>172</v>
+        <v>1281</v>
       </c>
       <c r="I485" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="J485" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="K485" s="7" t="s">
-        <v>397</v>
-      </c>
+        <v>1277</v>
+      </c>
+      <c r="J485" s="7"/>
+      <c r="K485" s="7"/>
       <c r="L485" s="8" t="s">
         <v>398</v>
       </c>
       <c r="M485" s="8" t="s">
-        <v>618</v>
+        <v>1278</v>
       </c>
       <c r="N485" s="8" t="s">
-        <v>619</v>
+        <v>1279</v>
       </c>
       <c r="O485" s="7" t="s">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="P485" s="7"/>
       <c r="Q485" s="7"/>
       <c r="R485" s="7">
         <v>0</v>
       </c>
-      <c r="S485" s="7"/>
+      <c r="S485" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T485" s="7"/>
       <c r="U485" s="7"/>
       <c r="V485" s="7"/>
       <c r="W485" s="7"/>
       <c r="X485" s="7"/>
-      <c r="Y485" s="7"/>
+      <c r="Y485" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z485" s="8" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="AA485" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB485" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB485" s="7"/>
     </row>
     <row r="486" spans="1:28">
       <c r="A486" s="3">
         <v>484</v>
       </c>
       <c r="B486" s="3">
-        <v>2026012254</v>
+        <v>2026012703</v>
       </c>
       <c r="C486" s="3">
         <v>1</v>
@@ -37306,30 +37308,34 @@
         <v>1006</v>
       </c>
       <c r="F486" s="3" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="G486" s="3" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="H486" s="3" t="s">
-        <v>247</v>
+        <v>172</v>
       </c>
       <c r="I486" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="J486" s="3"/>
-      <c r="K486" s="3"/>
+        <v>617</v>
+      </c>
+      <c r="J486" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K486" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="L486" s="6" t="s">
         <v>398</v>
       </c>
       <c r="M486" s="6" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="N486" s="6" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="O486" s="3" t="s">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="P486" s="3"/>
       <c r="Q486" s="3"/>
@@ -37337,16 +37343,14 @@
         <v>0</v>
       </c>
       <c r="S486" s="3"/>
-      <c r="T486" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="T486" s="3"/>
       <c r="U486" s="3"/>
       <c r="V486" s="3"/>
       <c r="W486" s="3"/>
       <c r="X486" s="3"/>
       <c r="Y486" s="3"/>
       <c r="Z486" s="6" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="AA486" s="3" t="s">
         <v>41</v>
@@ -37360,7 +37364,7 @@
         <v>485</v>
       </c>
       <c r="B487" s="7">
-        <v>2026010503</v>
+        <v>2026012254</v>
       </c>
       <c r="C487" s="7">
         <v>1</v>
@@ -37372,16 +37376,16 @@
         <v>1006</v>
       </c>
       <c r="F487" s="7" t="s">
-        <v>472</v>
+        <v>378</v>
       </c>
       <c r="G487" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H487" s="7" t="s">
-        <v>141</v>
+        <v>247</v>
       </c>
       <c r="I487" s="7" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="J487" s="7"/>
       <c r="K487" s="7"/>
@@ -37389,10 +37393,10 @@
         <v>398</v>
       </c>
       <c r="M487" s="8" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="N487" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="O487" s="7" t="s">
         <v>48</v>
@@ -37412,7 +37416,7 @@
       <c r="X487" s="7"/>
       <c r="Y487" s="7"/>
       <c r="Z487" s="8" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="AA487" s="7" t="s">
         <v>41</v>
@@ -37426,7 +37430,7 @@
         <v>486</v>
       </c>
       <c r="B488" s="3">
-        <v>2026010504</v>
+        <v>2026010503</v>
       </c>
       <c r="C488" s="3">
         <v>1</v>
@@ -37441,13 +37445,13 @@
         <v>472</v>
       </c>
       <c r="G488" s="3" t="s">
-        <v>282</v>
+        <v>57</v>
       </c>
       <c r="H488" s="3" t="s">
-        <v>416</v>
+        <v>141</v>
       </c>
       <c r="I488" s="3" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J488" s="3"/>
       <c r="K488" s="3"/>
@@ -37455,10 +37459,10 @@
         <v>398</v>
       </c>
       <c r="M488" s="6" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="N488" s="6" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="O488" s="3" t="s">
         <v>48</v>
@@ -37478,7 +37482,7 @@
       <c r="X488" s="3"/>
       <c r="Y488" s="3"/>
       <c r="Z488" s="6" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="AA488" s="3" t="s">
         <v>41</v>
@@ -37492,7 +37496,7 @@
         <v>487</v>
       </c>
       <c r="B489" s="7">
-        <v>2026011538</v>
+        <v>2026010504</v>
       </c>
       <c r="C489" s="7">
         <v>1</v>
@@ -37504,16 +37508,16 @@
         <v>1006</v>
       </c>
       <c r="F489" s="7" t="s">
-        <v>765</v>
+        <v>472</v>
       </c>
       <c r="G489" s="7" t="s">
-        <v>990</v>
+        <v>282</v>
       </c>
       <c r="H489" s="7" t="s">
-        <v>613</v>
+        <v>416</v>
       </c>
       <c r="I489" s="7" t="s">
-        <v>986</v>
+        <v>631</v>
       </c>
       <c r="J489" s="7"/>
       <c r="K489" s="7"/>
@@ -37521,10 +37525,10 @@
         <v>398</v>
       </c>
       <c r="M489" s="8" t="s">
-        <v>987</v>
+        <v>632</v>
       </c>
       <c r="N489" s="8" t="s">
-        <v>988</v>
+        <v>633</v>
       </c>
       <c r="O489" s="7" t="s">
         <v>48</v>
@@ -37544,7 +37548,7 @@
       <c r="X489" s="7"/>
       <c r="Y489" s="7"/>
       <c r="Z489" s="8" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="AA489" s="7" t="s">
         <v>41</v>
@@ -37558,7 +37562,7 @@
         <v>488</v>
       </c>
       <c r="B490" s="3">
-        <v>2026012356</v>
+        <v>2026011538</v>
       </c>
       <c r="C490" s="3">
         <v>1</v>
@@ -37570,16 +37574,16 @@
         <v>1006</v>
       </c>
       <c r="F490" s="3" t="s">
-        <v>432</v>
+        <v>765</v>
       </c>
       <c r="G490" s="3" t="s">
-        <v>57</v>
+        <v>990</v>
       </c>
       <c r="H490" s="3" t="s">
-        <v>141</v>
+        <v>613</v>
       </c>
       <c r="I490" s="3" t="s">
-        <v>658</v>
+        <v>986</v>
       </c>
       <c r="J490" s="3"/>
       <c r="K490" s="3"/>
@@ -37587,10 +37591,10 @@
         <v>398</v>
       </c>
       <c r="M490" s="6" t="s">
-        <v>659</v>
+        <v>987</v>
       </c>
       <c r="N490" s="6" t="s">
-        <v>660</v>
+        <v>988</v>
       </c>
       <c r="O490" s="3" t="s">
         <v>48</v>
@@ -37610,7 +37614,7 @@
       <c r="X490" s="3"/>
       <c r="Y490" s="3"/>
       <c r="Z490" s="6" t="s">
-        <v>1252</v>
+        <v>1287</v>
       </c>
       <c r="AA490" s="3" t="s">
         <v>41</v>
@@ -37624,7 +37628,7 @@
         <v>489</v>
       </c>
       <c r="B491" s="7">
-        <v>2026011635</v>
+        <v>2026012356</v>
       </c>
       <c r="C491" s="7">
         <v>1</v>
@@ -37636,34 +37640,30 @@
         <v>1006</v>
       </c>
       <c r="F491" s="7" t="s">
-        <v>74</v>
+        <v>432</v>
       </c>
       <c r="G491" s="7" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="H491" s="7" t="s">
-        <v>247</v>
+        <v>141</v>
       </c>
       <c r="I491" s="7" t="s">
-        <v>1286</v>
-      </c>
-      <c r="J491" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="K491" s="7" t="s">
-        <v>397</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="J491" s="7"/>
+      <c r="K491" s="7"/>
       <c r="L491" s="8" t="s">
         <v>398</v>
       </c>
       <c r="M491" s="8" t="s">
-        <v>1287</v>
+        <v>659</v>
       </c>
       <c r="N491" s="8" t="s">
-        <v>1288</v>
+        <v>660</v>
       </c>
       <c r="O491" s="7" t="s">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="P491" s="7"/>
       <c r="Q491" s="7"/>
@@ -37671,14 +37671,16 @@
         <v>0</v>
       </c>
       <c r="S491" s="7"/>
-      <c r="T491" s="7"/>
+      <c r="T491" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="U491" s="7"/>
       <c r="V491" s="7"/>
       <c r="W491" s="7"/>
       <c r="X491" s="7"/>
       <c r="Y491" s="7"/>
       <c r="Z491" s="8" t="s">
-        <v>926</v>
+        <v>1254</v>
       </c>
       <c r="AA491" s="7" t="s">
         <v>41</v>
@@ -37692,7 +37694,7 @@
         <v>490</v>
       </c>
       <c r="B492" s="3">
-        <v>2026011721</v>
+        <v>2026011635</v>
       </c>
       <c r="C492" s="3">
         <v>1</v>
@@ -37707,58 +37709,60 @@
         <v>74</v>
       </c>
       <c r="G492" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H492" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="H492" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="I492" s="3" t="s">
-        <v>1286</v>
-      </c>
-      <c r="J492" s="3"/>
-      <c r="K492" s="3"/>
+        <v>1288</v>
+      </c>
+      <c r="J492" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="K492" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="L492" s="6" t="s">
         <v>398</v>
       </c>
       <c r="M492" s="6" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="N492" s="6" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="O492" s="3" t="s">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="P492" s="3"/>
       <c r="Q492" s="3"/>
       <c r="R492" s="3">
         <v>0</v>
       </c>
-      <c r="S492" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S492" s="3"/>
       <c r="T492" s="3"/>
       <c r="U492" s="3"/>
       <c r="V492" s="3"/>
       <c r="W492" s="3"/>
       <c r="X492" s="3"/>
-      <c r="Y492" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y492" s="3"/>
       <c r="Z492" s="6" t="s">
-        <v>1289</v>
+        <v>926</v>
       </c>
       <c r="AA492" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB492" s="3"/>
+      <c r="AB492" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="493" spans="1:28">
       <c r="A493" s="7">
         <v>491</v>
       </c>
       <c r="B493" s="7">
-        <v>2026013037</v>
+        <v>2026011721</v>
       </c>
       <c r="C493" s="7">
         <v>1</v>
@@ -37770,31 +37774,27 @@
         <v>1006</v>
       </c>
       <c r="F493" s="7" t="s">
-        <v>430</v>
+        <v>74</v>
       </c>
       <c r="G493" s="7" t="s">
-        <v>66</v>
+        <v>247</v>
       </c>
       <c r="H493" s="7" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="I493" s="7" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J493" s="7"/>
+      <c r="K493" s="7"/>
+      <c r="L493" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="M493" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="N493" s="8" t="s">
         <v>1290</v>
-      </c>
-      <c r="J493" s="7" t="s">
-        <v>1291</v>
-      </c>
-      <c r="K493" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L493" s="8" t="s">
-        <v>1019</v>
-      </c>
-      <c r="M493" s="8" t="s">
-        <v>1292</v>
-      </c>
-      <c r="N493" s="8" t="s">
-        <v>1293</v>
       </c>
       <c r="O493" s="7" t="s">
         <v>48</v>
@@ -37802,7 +37802,7 @@
       <c r="P493" s="7"/>
       <c r="Q493" s="7"/>
       <c r="R493" s="7">
-        <v>3446</v>
+        <v>0</v>
       </c>
       <c r="S493" s="7" t="s">
         <v>41</v>
@@ -37812,11 +37812,15 @@
       <c r="V493" s="7"/>
       <c r="W493" s="7"/>
       <c r="X493" s="7"/>
-      <c r="Y493" s="7"/>
+      <c r="Y493" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z493" s="8" t="s">
-        <v>1012</v>
-      </c>
-      <c r="AA493" s="7"/>
+        <v>1291</v>
+      </c>
+      <c r="AA493" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB493" s="7"/>
     </row>
     <row r="494" spans="1:28">
@@ -37824,7 +37828,7 @@
         <v>492</v>
       </c>
       <c r="B494" s="3">
-        <v>2026013038</v>
+        <v>2026013037</v>
       </c>
       <c r="C494" s="3">
         <v>1</v>
@@ -37845,10 +37849,10 @@
         <v>165</v>
       </c>
       <c r="I494" s="3" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="J494" s="3" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="K494" s="3" t="s">
         <v>36</v>
@@ -37857,20 +37861,22 @@
         <v>1019</v>
       </c>
       <c r="M494" s="6" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="N494" s="6" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="O494" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="P494" s="3"/>
       <c r="Q494" s="3"/>
       <c r="R494" s="3">
         <v>3446</v>
       </c>
-      <c r="S494" s="3"/>
+      <c r="S494" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T494" s="3"/>
       <c r="U494" s="3"/>
       <c r="V494" s="3"/>
@@ -37880,9 +37886,7 @@
       <c r="Z494" s="6" t="s">
         <v>1012</v>
       </c>
-      <c r="AA494" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="AA494" s="3"/>
       <c r="AB494" s="3"/>
     </row>
     <row r="495" spans="1:28">
@@ -37890,7 +37894,7 @@
         <v>493</v>
       </c>
       <c r="B495" s="7">
-        <v>2026013033</v>
+        <v>2026013038</v>
       </c>
       <c r="C495" s="7">
         <v>1</v>
@@ -37905,16 +37909,16 @@
         <v>430</v>
       </c>
       <c r="G495" s="7" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="H495" s="7" t="s">
-        <v>339</v>
+        <v>165</v>
       </c>
       <c r="I495" s="7" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="J495" s="7" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="K495" s="7" t="s">
         <v>36</v>
@@ -37923,22 +37927,20 @@
         <v>1019</v>
       </c>
       <c r="M495" s="8" t="s">
+        <v>1294</v>
+      </c>
+      <c r="N495" s="8" t="s">
         <v>1295</v>
       </c>
-      <c r="N495" s="8" t="s">
-        <v>1296</v>
-      </c>
       <c r="O495" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P495" s="7"/>
       <c r="Q495" s="7"/>
       <c r="R495" s="7">
-        <v>5572</v>
-      </c>
-      <c r="S495" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>3446</v>
+      </c>
+      <c r="S495" s="7"/>
       <c r="T495" s="7"/>
       <c r="U495" s="7"/>
       <c r="V495" s="7"/>
@@ -37948,7 +37950,9 @@
       <c r="Z495" s="8" t="s">
         <v>1012</v>
       </c>
-      <c r="AA495" s="7"/>
+      <c r="AA495" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB495" s="7"/>
     </row>
     <row r="496" spans="1:28">
@@ -37956,7 +37960,7 @@
         <v>494</v>
       </c>
       <c r="B496" s="3">
-        <v>2026013034</v>
+        <v>2026013033</v>
       </c>
       <c r="C496" s="3">
         <v>1</v>
@@ -37977,10 +37981,10 @@
         <v>339</v>
       </c>
       <c r="I496" s="3" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="J496" s="3" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="K496" s="3" t="s">
         <v>36</v>
@@ -37989,20 +37993,22 @@
         <v>1019</v>
       </c>
       <c r="M496" s="6" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="N496" s="6" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="O496" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="P496" s="3"/>
       <c r="Q496" s="3"/>
       <c r="R496" s="3">
         <v>5572</v>
       </c>
-      <c r="S496" s="3"/>
+      <c r="S496" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T496" s="3"/>
       <c r="U496" s="3"/>
       <c r="V496" s="3"/>
@@ -38012,9 +38018,7 @@
       <c r="Z496" s="6" t="s">
         <v>1012</v>
       </c>
-      <c r="AA496" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="AA496" s="3"/>
       <c r="AB496" s="3"/>
     </row>
     <row r="497" spans="1:28">
@@ -38022,7 +38026,7 @@
         <v>495</v>
       </c>
       <c r="B497" s="7">
-        <v>2026012190</v>
+        <v>2026013034</v>
       </c>
       <c r="C497" s="7">
         <v>1</v>
@@ -38034,19 +38038,19 @@
         <v>1006</v>
       </c>
       <c r="F497" s="7" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="G497" s="7" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="H497" s="7" t="s">
-        <v>32</v>
+        <v>339</v>
       </c>
       <c r="I497" s="7" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="J497" s="7" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="K497" s="7" t="s">
         <v>36</v>
@@ -38055,44 +38059,40 @@
         <v>1019</v>
       </c>
       <c r="M497" s="8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="N497" s="8" t="s">
         <v>1298</v>
       </c>
-      <c r="N497" s="8" t="s">
-        <v>1299</v>
-      </c>
       <c r="O497" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P497" s="7"/>
       <c r="Q497" s="7"/>
       <c r="R497" s="7">
-        <v>1405</v>
+        <v>5572</v>
       </c>
       <c r="S497" s="7"/>
       <c r="T497" s="7"/>
-      <c r="U497" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="U497" s="7"/>
       <c r="V497" s="7"/>
       <c r="W497" s="7"/>
       <c r="X497" s="7"/>
       <c r="Y497" s="7"/>
       <c r="Z497" s="8" t="s">
-        <v>1064</v>
+        <v>1012</v>
       </c>
       <c r="AA497" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB497" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB497" s="7"/>
     </row>
     <row r="498" spans="1:28">
       <c r="A498" s="3">
         <v>496</v>
       </c>
       <c r="B498" s="3">
-        <v>2026013035</v>
+        <v>2026012190</v>
       </c>
       <c r="C498" s="3">
         <v>1</v>
@@ -38104,19 +38104,19 @@
         <v>1006</v>
       </c>
       <c r="F498" s="3" t="s">
-        <v>430</v>
+        <v>378</v>
       </c>
       <c r="G498" s="3" t="s">
-        <v>339</v>
+        <v>124</v>
       </c>
       <c r="H498" s="3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="I498" s="3" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="J498" s="3" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="K498" s="3" t="s">
         <v>36</v>
@@ -38125,10 +38125,10 @@
         <v>1019</v>
       </c>
       <c r="M498" s="6" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="N498" s="6" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="O498" s="3" t="s">
         <v>48</v>
@@ -38136,29 +38136,33 @@
       <c r="P498" s="3"/>
       <c r="Q498" s="3"/>
       <c r="R498" s="3">
-        <v>2763</v>
-      </c>
-      <c r="S498" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>1405</v>
+      </c>
+      <c r="S498" s="3"/>
       <c r="T498" s="3"/>
-      <c r="U498" s="3"/>
+      <c r="U498" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="V498" s="3"/>
       <c r="W498" s="3"/>
       <c r="X498" s="3"/>
       <c r="Y498" s="3"/>
       <c r="Z498" s="6" t="s">
-        <v>1012</v>
-      </c>
-      <c r="AA498" s="3"/>
-      <c r="AB498" s="3"/>
+        <v>1064</v>
+      </c>
+      <c r="AA498" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB498" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="499" spans="1:28">
       <c r="A499" s="7">
         <v>497</v>
       </c>
       <c r="B499" s="7">
-        <v>2026013036</v>
+        <v>2026013035</v>
       </c>
       <c r="C499" s="7">
         <v>1</v>
@@ -38179,10 +38183,10 @@
         <v>66</v>
       </c>
       <c r="I499" s="7" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="J499" s="7" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="K499" s="7" t="s">
         <v>36</v>
@@ -38191,20 +38195,22 @@
         <v>1019</v>
       </c>
       <c r="M499" s="8" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="N499" s="8" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="O499" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="P499" s="7"/>
       <c r="Q499" s="7"/>
       <c r="R499" s="7">
         <v>2763</v>
       </c>
-      <c r="S499" s="7"/>
+      <c r="S499" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T499" s="7"/>
       <c r="U499" s="7"/>
       <c r="V499" s="7"/>
@@ -38214,9 +38220,7 @@
       <c r="Z499" s="8" t="s">
         <v>1012</v>
       </c>
-      <c r="AA499" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="AA499" s="7"/>
       <c r="AB499" s="7"/>
     </row>
     <row r="500" spans="1:28">
@@ -38224,7 +38228,7 @@
         <v>498</v>
       </c>
       <c r="B500" s="3">
-        <v>2026013008</v>
+        <v>2026013036</v>
       </c>
       <c r="C500" s="3">
         <v>1</v>
@@ -38233,46 +38237,44 @@
         <v>29</v>
       </c>
       <c r="E500" s="3" t="s">
-        <v>1300</v>
+        <v>1006</v>
       </c>
       <c r="F500" s="3" t="s">
         <v>430</v>
       </c>
       <c r="G500" s="3" t="s">
-        <v>1301</v>
+        <v>339</v>
       </c>
       <c r="H500" s="3" t="s">
-        <v>1302</v>
+        <v>66</v>
       </c>
       <c r="I500" s="3" t="s">
-        <v>1109</v>
+        <v>1299</v>
       </c>
       <c r="J500" s="3" t="s">
-        <v>1110</v>
+        <v>1293</v>
       </c>
       <c r="K500" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L500" s="6" t="s">
-        <v>1111</v>
+        <v>1019</v>
       </c>
       <c r="M500" s="6" t="s">
-        <v>1057</v>
+        <v>1300</v>
       </c>
       <c r="N500" s="6" t="s">
-        <v>1077</v>
+        <v>1301</v>
       </c>
       <c r="O500" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P500" s="3"/>
       <c r="Q500" s="3"/>
       <c r="R500" s="3">
-        <v>76644</v>
-      </c>
-      <c r="S500" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>2763</v>
+      </c>
+      <c r="S500" s="3"/>
       <c r="T500" s="3"/>
       <c r="U500" s="3"/>
       <c r="V500" s="3"/>
@@ -38285,16 +38287,14 @@
       <c r="AA500" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB500" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB500" s="3"/>
     </row>
     <row r="501" spans="1:28">
       <c r="A501" s="7">
         <v>499</v>
       </c>
       <c r="B501" s="7">
-        <v>2026011953</v>
+        <v>2026013008</v>
       </c>
       <c r="C501" s="7">
         <v>1</v>
@@ -38303,10 +38303,10 @@
         <v>29</v>
       </c>
       <c r="E501" s="7" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="F501" s="7" t="s">
-        <v>197</v>
+        <v>430</v>
       </c>
       <c r="G501" s="7" t="s">
         <v>1303</v>
@@ -38315,41 +38315,43 @@
         <v>1304</v>
       </c>
       <c r="I501" s="7" t="s">
-        <v>1305</v>
+        <v>1109</v>
       </c>
       <c r="J501" s="7" t="s">
-        <v>307</v>
+        <v>1110</v>
       </c>
       <c r="K501" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L501" s="8" t="s">
-        <v>1306</v>
+        <v>1111</v>
       </c>
       <c r="M501" s="8" t="s">
-        <v>1307</v>
+        <v>1057</v>
       </c>
       <c r="N501" s="8" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
       <c r="O501" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="P501" s="7"/>
-      <c r="Q501" s="7">
-        <v>7262</v>
-      </c>
+      <c r="Q501" s="7"/>
       <c r="R501" s="7">
-        <v>82855</v>
-      </c>
-      <c r="S501" s="7"/>
+        <v>76644</v>
+      </c>
+      <c r="S501" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T501" s="7"/>
       <c r="U501" s="7"/>
       <c r="V501" s="7"/>
       <c r="W501" s="7"/>
       <c r="X501" s="7"/>
       <c r="Y501" s="7"/>
-      <c r="Z501" s="8"/>
+      <c r="Z501" s="8" t="s">
+        <v>1012</v>
+      </c>
       <c r="AA501" s="7" t="s">
         <v>41</v>
       </c>
@@ -38362,7 +38364,7 @@
         <v>500</v>
       </c>
       <c r="B502" s="3">
-        <v>2026011954</v>
+        <v>2026011953</v>
       </c>
       <c r="C502" s="3">
         <v>1</v>
@@ -38371,19 +38373,19 @@
         <v>29</v>
       </c>
       <c r="E502" s="3" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="F502" s="3" t="s">
         <v>197</v>
       </c>
       <c r="G502" s="3" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="H502" s="3" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="I502" s="3" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="J502" s="3" t="s">
         <v>307</v>
@@ -38392,10 +38394,10 @@
         <v>36</v>
       </c>
       <c r="L502" s="6" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="M502" s="6" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="N502" s="6" t="s">
         <v>1069</v>
@@ -38405,10 +38407,10 @@
       </c>
       <c r="P502" s="3"/>
       <c r="Q502" s="3">
-        <v>12195</v>
+        <v>7262</v>
       </c>
       <c r="R502" s="3">
-        <v>139055</v>
+        <v>82855</v>
       </c>
       <c r="S502" s="3"/>
       <c r="T502" s="3"/>
@@ -38430,7 +38432,7 @@
         <v>501</v>
       </c>
       <c r="B503" s="7">
-        <v>2026010936</v>
+        <v>2026011954</v>
       </c>
       <c r="C503" s="7">
         <v>1</v>
@@ -38439,60 +38441,66 @@
         <v>29</v>
       </c>
       <c r="E503" s="7" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="F503" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G503" s="7" t="s">
-        <v>235</v>
+        <v>1305</v>
       </c>
       <c r="H503" s="7" t="s">
-        <v>236</v>
+        <v>1306</v>
       </c>
       <c r="I503" s="7" t="s">
+        <v>1310</v>
+      </c>
+      <c r="J503" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K503" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L503" s="8" t="s">
+        <v>1308</v>
+      </c>
+      <c r="M503" s="8" t="s">
         <v>1309</v>
       </c>
-      <c r="J503" s="7"/>
-      <c r="K503" s="7"/>
-      <c r="L503" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="M503" s="8" t="s">
-        <v>1310</v>
-      </c>
       <c r="N503" s="8" t="s">
-        <v>1311</v>
+        <v>1069</v>
       </c>
       <c r="O503" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P503" s="7"/>
-      <c r="Q503" s="7"/>
+      <c r="Q503" s="7">
+        <v>12195</v>
+      </c>
       <c r="R503" s="7">
-        <v>0</v>
-      </c>
-      <c r="S503" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>139055</v>
+      </c>
+      <c r="S503" s="7"/>
       <c r="T503" s="7"/>
       <c r="U503" s="7"/>
       <c r="V503" s="7"/>
       <c r="W503" s="7"/>
       <c r="X503" s="7"/>
       <c r="Y503" s="7"/>
-      <c r="Z503" s="8" t="s">
-        <v>1312</v>
-      </c>
-      <c r="AA503" s="7"/>
-      <c r="AB503" s="7"/>
+      <c r="Z503" s="8"/>
+      <c r="AA503" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB503" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="504" spans="1:28">
       <c r="A504" s="3">
         <v>502</v>
       </c>
       <c r="B504" s="3">
-        <v>2026010570</v>
+        <v>2026010936</v>
       </c>
       <c r="C504" s="3">
         <v>1</v>
@@ -38501,7 +38509,7 @@
         <v>29</v>
       </c>
       <c r="E504" s="3" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="F504" s="3" t="s">
         <v>189</v>
@@ -38513,32 +38521,30 @@
         <v>236</v>
       </c>
       <c r="I504" s="3" t="s">
-        <v>1309</v>
-      </c>
-      <c r="J504" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="K504" s="3" t="s">
-        <v>397</v>
-      </c>
+        <v>1311</v>
+      </c>
+      <c r="J504" s="3"/>
+      <c r="K504" s="3"/>
       <c r="L504" s="6" t="s">
         <v>398</v>
       </c>
       <c r="M504" s="6" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="N504" s="6" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="O504" s="3" t="s">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="P504" s="3"/>
       <c r="Q504" s="3"/>
       <c r="R504" s="3">
         <v>0</v>
       </c>
-      <c r="S504" s="3"/>
+      <c r="S504" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T504" s="3"/>
       <c r="U504" s="3"/>
       <c r="V504" s="3"/>
@@ -38546,11 +38552,9 @@
       <c r="X504" s="3"/>
       <c r="Y504" s="3"/>
       <c r="Z504" s="6" t="s">
-        <v>1313</v>
-      </c>
-      <c r="AA504" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>1314</v>
+      </c>
+      <c r="AA504" s="3"/>
       <c r="AB504" s="3"/>
     </row>
     <row r="505" spans="1:28">
@@ -38558,7 +38562,7 @@
         <v>503</v>
       </c>
       <c r="B505" s="7">
-        <v>2026012133</v>
+        <v>2026010570</v>
       </c>
       <c r="C505" s="7">
         <v>1</v>
@@ -38567,19 +38571,19 @@
         <v>29</v>
       </c>
       <c r="E505" s="7" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="F505" s="7" t="s">
-        <v>378</v>
+        <v>189</v>
       </c>
       <c r="G505" s="7" t="s">
-        <v>1314</v>
+        <v>235</v>
       </c>
       <c r="H505" s="7" t="s">
-        <v>1315</v>
+        <v>236</v>
       </c>
       <c r="I505" s="7" t="s">
-        <v>547</v>
+        <v>1311</v>
       </c>
       <c r="J505" s="7" t="s">
         <v>406</v>
@@ -38591,10 +38595,10 @@
         <v>398</v>
       </c>
       <c r="M505" s="8" t="s">
-        <v>548</v>
+        <v>1312</v>
       </c>
       <c r="N505" s="8" t="s">
-        <v>549</v>
+        <v>1313</v>
       </c>
       <c r="O505" s="7" t="s">
         <v>260</v>
@@ -38612,21 +38616,19 @@
       <c r="X505" s="7"/>
       <c r="Y505" s="7"/>
       <c r="Z505" s="8" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AA505" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB505" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB505" s="7"/>
     </row>
     <row r="506" spans="1:28">
       <c r="A506" s="3">
         <v>504</v>
       </c>
       <c r="B506" s="3">
-        <v>2026011192</v>
+        <v>2026012133</v>
       </c>
       <c r="C506" s="3">
         <v>1</v>
@@ -38635,42 +38637,44 @@
         <v>29</v>
       </c>
       <c r="E506" s="3" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="F506" s="3" t="s">
-        <v>123</v>
+        <v>378</v>
       </c>
       <c r="G506" s="3" t="s">
-        <v>32</v>
+        <v>1316</v>
       </c>
       <c r="H506" s="3" t="s">
-        <v>57</v>
+        <v>1317</v>
       </c>
       <c r="I506" s="3" t="s">
-        <v>1317</v>
-      </c>
-      <c r="J506" s="3"/>
-      <c r="K506" s="3"/>
+        <v>547</v>
+      </c>
+      <c r="J506" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="K506" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="L506" s="6" t="s">
         <v>398</v>
       </c>
       <c r="M506" s="6" t="s">
-        <v>1318</v>
+        <v>548</v>
       </c>
       <c r="N506" s="6" t="s">
-        <v>1319</v>
+        <v>549</v>
       </c>
       <c r="O506" s="3" t="s">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="P506" s="3"/>
       <c r="Q506" s="3"/>
       <c r="R506" s="3">
         <v>0</v>
       </c>
-      <c r="S506" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S506" s="3"/>
       <c r="T506" s="3"/>
       <c r="U506" s="3"/>
       <c r="V506" s="3"/>
@@ -38678,17 +38682,21 @@
       <c r="X506" s="3"/>
       <c r="Y506" s="3"/>
       <c r="Z506" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="AA506" s="3"/>
-      <c r="AB506" s="3"/>
+        <v>1318</v>
+      </c>
+      <c r="AA506" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB506" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="507" spans="1:28">
       <c r="A507" s="7">
         <v>505</v>
       </c>
       <c r="B507" s="7">
-        <v>2026010915</v>
+        <v>2026011192</v>
       </c>
       <c r="C507" s="7">
         <v>1</v>
@@ -38697,44 +38705,42 @@
         <v>29</v>
       </c>
       <c r="E507" s="7" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="F507" s="7" t="s">
         <v>123</v>
       </c>
       <c r="G507" s="7" t="s">
-        <v>1320</v>
+        <v>32</v>
       </c>
       <c r="H507" s="7" t="s">
-        <v>287</v>
+        <v>57</v>
       </c>
       <c r="I507" s="7" t="s">
-        <v>1317</v>
-      </c>
-      <c r="J507" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="K507" s="7" t="s">
-        <v>397</v>
-      </c>
+        <v>1319</v>
+      </c>
+      <c r="J507" s="7"/>
+      <c r="K507" s="7"/>
       <c r="L507" s="8" t="s">
         <v>398</v>
       </c>
       <c r="M507" s="8" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="N507" s="8" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="O507" s="7" t="s">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="P507" s="7"/>
       <c r="Q507" s="7"/>
       <c r="R507" s="7">
         <v>0</v>
       </c>
-      <c r="S507" s="7"/>
+      <c r="S507" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T507" s="7"/>
       <c r="U507" s="7"/>
       <c r="V507" s="7"/>
@@ -38742,11 +38748,9 @@
       <c r="X507" s="7"/>
       <c r="Y507" s="7"/>
       <c r="Z507" s="8" t="s">
-        <v>1321</v>
-      </c>
-      <c r="AA507" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="AA507" s="7"/>
       <c r="AB507" s="7"/>
     </row>
     <row r="508" spans="1:28">
@@ -38754,7 +38758,7 @@
         <v>506</v>
       </c>
       <c r="B508" s="3">
-        <v>2026011213</v>
+        <v>2026010915</v>
       </c>
       <c r="C508" s="3">
         <v>1</v>
@@ -38763,42 +38767,44 @@
         <v>29</v>
       </c>
       <c r="E508" s="3" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="F508" s="3" t="s">
         <v>123</v>
       </c>
       <c r="G508" s="3" t="s">
-        <v>373</v>
+        <v>1322</v>
       </c>
       <c r="H508" s="3" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="I508" s="3" t="s">
-        <v>1322</v>
-      </c>
-      <c r="J508" s="3"/>
-      <c r="K508" s="3"/>
+        <v>1319</v>
+      </c>
+      <c r="J508" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="K508" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="L508" s="6" t="s">
         <v>398</v>
       </c>
       <c r="M508" s="6" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="N508" s="6" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="O508" s="3" t="s">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="P508" s="3"/>
       <c r="Q508" s="3"/>
       <c r="R508" s="3">
         <v>0</v>
       </c>
-      <c r="S508" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S508" s="3"/>
       <c r="T508" s="3"/>
       <c r="U508" s="3"/>
       <c r="V508" s="3"/>
@@ -38806,9 +38812,11 @@
       <c r="X508" s="3"/>
       <c r="Y508" s="3"/>
       <c r="Z508" s="6" t="s">
-        <v>1325</v>
-      </c>
-      <c r="AA508" s="3"/>
+        <v>1323</v>
+      </c>
+      <c r="AA508" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB508" s="3"/>
     </row>
     <row r="509" spans="1:28">
@@ -38816,7 +38824,7 @@
         <v>507</v>
       </c>
       <c r="B509" s="7">
-        <v>2026011018</v>
+        <v>2026011213</v>
       </c>
       <c r="C509" s="7">
         <v>1</v>
@@ -38825,7 +38833,7 @@
         <v>29</v>
       </c>
       <c r="E509" s="7" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="F509" s="7" t="s">
         <v>123</v>
@@ -38837,32 +38845,30 @@
         <v>235</v>
       </c>
       <c r="I509" s="7" t="s">
-        <v>1322</v>
-      </c>
-      <c r="J509" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="K509" s="7" t="s">
-        <v>397</v>
-      </c>
+        <v>1324</v>
+      </c>
+      <c r="J509" s="7"/>
+      <c r="K509" s="7"/>
       <c r="L509" s="8" t="s">
         <v>398</v>
       </c>
       <c r="M509" s="8" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="N509" s="8" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="O509" s="7" t="s">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="P509" s="7"/>
       <c r="Q509" s="7"/>
       <c r="R509" s="7">
         <v>0</v>
       </c>
-      <c r="S509" s="7"/>
+      <c r="S509" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T509" s="7"/>
       <c r="U509" s="7"/>
       <c r="V509" s="7"/>
@@ -38870,11 +38876,9 @@
       <c r="X509" s="7"/>
       <c r="Y509" s="7"/>
       <c r="Z509" s="8" t="s">
-        <v>1326</v>
-      </c>
-      <c r="AA509" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>1327</v>
+      </c>
+      <c r="AA509" s="7"/>
       <c r="AB509" s="7"/>
     </row>
     <row r="510" spans="1:28">
@@ -38882,7 +38886,7 @@
         <v>508</v>
       </c>
       <c r="B510" s="3">
-        <v>2026010935</v>
+        <v>2026011018</v>
       </c>
       <c r="C510" s="3">
         <v>1</v>
@@ -38891,34 +38895,34 @@
         <v>29</v>
       </c>
       <c r="E510" s="3" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="F510" s="3" t="s">
-        <v>363</v>
+        <v>123</v>
       </c>
       <c r="G510" s="3" t="s">
-        <v>86</v>
+        <v>373</v>
       </c>
       <c r="H510" s="3" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="I510" s="3" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="J510" s="3" t="s">
-        <v>1328</v>
+        <v>406</v>
       </c>
       <c r="K510" s="3" t="s">
-        <v>1329</v>
+        <v>397</v>
       </c>
       <c r="L510" s="6" t="s">
-        <v>1330</v>
+        <v>398</v>
       </c>
       <c r="M510" s="6" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="N510" s="6" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="O510" s="3" t="s">
         <v>260</v>
@@ -38936,21 +38940,19 @@
       <c r="X510" s="3"/>
       <c r="Y510" s="3"/>
       <c r="Z510" s="6" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="AA510" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB510" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB510" s="3"/>
     </row>
     <row r="511" spans="1:28">
       <c r="A511" s="7">
         <v>509</v>
       </c>
       <c r="B511" s="7">
-        <v>2026010934</v>
+        <v>2026010935</v>
       </c>
       <c r="C511" s="7">
         <v>1</v>
@@ -38959,34 +38961,34 @@
         <v>29</v>
       </c>
       <c r="E511" s="7" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="F511" s="7" t="s">
         <v>363</v>
       </c>
       <c r="G511" s="7" t="s">
-        <v>264</v>
+        <v>86</v>
       </c>
       <c r="H511" s="7" t="s">
-        <v>730</v>
+        <v>247</v>
       </c>
       <c r="I511" s="7" t="s">
+        <v>1329</v>
+      </c>
+      <c r="J511" s="7" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K511" s="7" t="s">
+        <v>1331</v>
+      </c>
+      <c r="L511" s="8" t="s">
+        <v>1332</v>
+      </c>
+      <c r="M511" s="8" t="s">
+        <v>1333</v>
+      </c>
+      <c r="N511" s="8" t="s">
         <v>1334</v>
-      </c>
-      <c r="J511" s="7" t="s">
-        <v>1328</v>
-      </c>
-      <c r="K511" s="7" t="s">
-        <v>1329</v>
-      </c>
-      <c r="L511" s="8" t="s">
-        <v>1330</v>
-      </c>
-      <c r="M511" s="8" t="s">
-        <v>1331</v>
-      </c>
-      <c r="N511" s="8" t="s">
-        <v>1332</v>
       </c>
       <c r="O511" s="7" t="s">
         <v>260</v>
@@ -39004,47 +39006,115 @@
       <c r="X511" s="7"/>
       <c r="Y511" s="7"/>
       <c r="Z511" s="8" t="s">
+        <v>1335</v>
+      </c>
+      <c r="AA511" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB511" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:28">
+      <c r="A512" s="3">
+        <v>510</v>
+      </c>
+      <c r="B512" s="3">
+        <v>2026010934</v>
+      </c>
+      <c r="C512" s="3">
+        <v>1</v>
+      </c>
+      <c r="D512" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E512" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F512" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G512" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="H512" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="I512" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="J512" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K512" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="L512" s="6" t="s">
+        <v>1332</v>
+      </c>
+      <c r="M512" s="6" t="s">
         <v>1333</v>
       </c>
-      <c r="AA511" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB511" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="512" spans="1:28">
-      <c r="A512" s="9"/>
-      <c r="B512" s="9"/>
-      <c r="C512" s="9"/>
-      <c r="D512" s="9"/>
-      <c r="E512" s="9"/>
-      <c r="F512" s="9"/>
-      <c r="G512" s="9"/>
-      <c r="H512" s="9"/>
-      <c r="I512" s="9"/>
-      <c r="J512" s="9"/>
-      <c r="K512" s="9"/>
-      <c r="L512" s="10"/>
-      <c r="M512" s="10"/>
-      <c r="N512" s="10"/>
-      <c r="O512" s="9"/>
-      <c r="P512" s="9"/>
-      <c r="Q512" s="9"/>
-      <c r="R512" s="9"/>
-      <c r="S512" s="9"/>
-      <c r="T512" s="9"/>
-      <c r="U512" s="9"/>
-      <c r="V512" s="9"/>
-      <c r="W512" s="9"/>
-      <c r="X512" s="9"/>
-      <c r="Y512" s="9"/>
-      <c r="Z512" s="10"/>
-      <c r="AA512" s="9" t="s">
+      <c r="N512" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O512" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="P512" s="3"/>
+      <c r="Q512" s="3"/>
+      <c r="R512" s="3">
+        <v>0</v>
+      </c>
+      <c r="S512" s="3"/>
+      <c r="T512" s="3"/>
+      <c r="U512" s="3"/>
+      <c r="V512" s="3"/>
+      <c r="W512" s="3"/>
+      <c r="X512" s="3"/>
+      <c r="Y512" s="3"/>
+      <c r="Z512" s="6" t="s">
         <v>1335</v>
       </c>
-      <c r="AB512" s="9">
-        <v>300</v>
+      <c r="AA512" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB512" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:28">
+      <c r="A513" s="9"/>
+      <c r="B513" s="9"/>
+      <c r="C513" s="9"/>
+      <c r="D513" s="9"/>
+      <c r="E513" s="9"/>
+      <c r="F513" s="9"/>
+      <c r="G513" s="9"/>
+      <c r="H513" s="9"/>
+      <c r="I513" s="9"/>
+      <c r="J513" s="9"/>
+      <c r="K513" s="9"/>
+      <c r="L513" s="10"/>
+      <c r="M513" s="10"/>
+      <c r="N513" s="10"/>
+      <c r="O513" s="9"/>
+      <c r="P513" s="9"/>
+      <c r="Q513" s="9"/>
+      <c r="R513" s="9"/>
+      <c r="S513" s="9"/>
+      <c r="T513" s="9"/>
+      <c r="U513" s="9"/>
+      <c r="V513" s="9"/>
+      <c r="W513" s="9"/>
+      <c r="X513" s="9"/>
+      <c r="Y513" s="9"/>
+      <c r="Z513" s="10"/>
+      <c r="AA513" s="9" t="s">
+        <v>1337</v>
+      </c>
+      <c r="AB513" s="9">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
